--- a/bloodhound/credenciais_oi_raid7_v11122017.xlsx
+++ b/bloodhound/credenciais_oi_raid7_v11122017.xlsx
@@ -22,10 +22,11 @@
     <sheet name="RAID-FMS DEV_HML" sheetId="9" r:id="rId8"/>
     <sheet name="RAID-FMS PRD" sheetId="8" r:id="rId9"/>
     <sheet name="rubricas FMS" sheetId="10" r:id="rId10"/>
-    <sheet name="ME Ondas" sheetId="11" r:id="rId11"/>
+    <sheet name="Oipedia" sheetId="12" r:id="rId11"/>
+    <sheet name="ME Ondas" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'ME Ondas'!$A$1:$I$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'ME Ondas'!$A$1:$I$23</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="434">
   <si>
     <t>raid_pi_adm</t>
   </si>
@@ -1378,6 +1379,90 @@
   <si>
     <t>Servidor 10 [DB 5] BCV</t>
   </si>
+  <si>
+    <t>HML:</t>
+  </si>
+  <si>
+    <t>Servidor WEB</t>
+  </si>
+  <si>
+    <t>OPDHX01</t>
+  </si>
+  <si>
+    <t>Usuário: oipedia</t>
+  </si>
+  <si>
+    <t>Senha: s5cHuDre</t>
+  </si>
+  <si>
+    <t>Servidor Banco:</t>
+  </si>
+  <si>
+    <t>OIPEDIA-H1 =</t>
+  </si>
+  <si>
+    <t>  (DESCRIPTION =</t>
+  </si>
+  <si>
+    <t>    (ADDRESS = (PROTOCOL = TCP)(HOST = oipedia-h1)(PORT = 1549))</t>
+  </si>
+  <si>
+    <t>    (CONNECT_DATA = (SERVICE_NAME = oipedia))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ) </t>
+  </si>
+  <si>
+    <t>Senha: agile$2017hml</t>
+  </si>
+  <si>
+    <t>OPDPX01</t>
+  </si>
+  <si>
+    <t>OIPEDIA-P1 =</t>
+  </si>
+  <si>
+    <t>    (ADDRESS = (PROTOCOL = TCP)(HOST = oipedia-p1)(PORT = 1549))</t>
+  </si>
+  <si>
+    <t>  )</t>
+  </si>
+  <si>
+    <t>DEV:</t>
+  </si>
+  <si>
+    <t>TOMCAT</t>
+  </si>
+  <si>
+    <t>Segue para conhecimento.</t>
+  </si>
+  <si>
+    <t>Fazer antes</t>
+  </si>
+  <si>
+    <t>Sudo su – weboper</t>
+  </si>
+  <si>
+    <t>[oipedia@opdhx01 ~]$ sudo su - weboper</t>
+  </si>
+  <si>
+    <t>[weboper@opdhx01 ~]$ cd /</t>
+  </si>
+  <si>
+    <t>[weboper@opdhx01 /]$ cd /webtools/tomcat1/bin/</t>
+  </si>
+  <si>
+    <t>[weboper@opdhx01 bin]$ sudo ./adminTomcat.sh status</t>
+  </si>
+  <si>
+    <t>cd /webtools/tomcat1/bin/;</t>
+  </si>
+  <si>
+    <t>sudo ./adminTomcat.sh status</t>
+  </si>
+  <si>
+    <t>sudo ./adminTomcat.sh stop</t>
+  </si>
 </sst>
 </file>
 
@@ -1390,7 +1475,7 @@
     <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1487,8 +1572,31 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F4E79"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF1F4E79"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1576,6 +1684,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1700,7 +1814,7 @@
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1896,7 +2010,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2804,6 +2931,187 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="85"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75">
+      <c r="A1" s="84" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75">
+      <c r="A2" s="86" t="s">
+        <v>407</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
+      <c r="A3" s="84" t="s">
+        <v>408</v>
+      </c>
+      <c r="L3" s="87" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75">
+      <c r="A4" s="84" t="s">
+        <v>409</v>
+      </c>
+      <c r="L4" s="87" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75">
+      <c r="A5" s="84" t="s">
+        <v>410</v>
+      </c>
+      <c r="L5" s="87"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75">
+      <c r="A6" s="86" t="s">
+        <v>411</v>
+      </c>
+      <c r="L6" s="87" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75">
+      <c r="A7" s="84" t="s">
+        <v>412</v>
+      </c>
+      <c r="L7" s="87"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75">
+      <c r="A8" s="84" t="s">
+        <v>413</v>
+      </c>
+      <c r="L8" s="87" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75">
+      <c r="A9" s="84" t="s">
+        <v>414</v>
+      </c>
+      <c r="L9" s="87" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75">
+      <c r="A10" s="84" t="s">
+        <v>415</v>
+      </c>
+      <c r="L10" s="87" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75">
+      <c r="A11" s="84" t="s">
+        <v>416</v>
+      </c>
+      <c r="L11" s="87" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75">
+      <c r="A12" s="84" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75">
+      <c r="A13" s="84" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75">
+      <c r="A14" s="84"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75">
+      <c r="A15" s="84" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75">
+      <c r="A16" s="86" t="s">
+        <v>407</v>
+      </c>
+      <c r="L16" s="88" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75">
+      <c r="A17" s="84" t="s">
+        <v>418</v>
+      </c>
+      <c r="L17" s="88"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75">
+      <c r="A18" s="84" t="s">
+        <v>409</v>
+      </c>
+      <c r="L18" s="88" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75">
+      <c r="A19" s="84" t="s">
+        <v>410</v>
+      </c>
+      <c r="L19" s="88" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75">
+      <c r="A20" s="86" t="s">
+        <v>411</v>
+      </c>
+      <c r="L20" s="88" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75">
+      <c r="A21" s="84" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75">
+      <c r="A22" s="84" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75">
+      <c r="A23" s="84" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75">
+      <c r="A24" s="84" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75">
+      <c r="A25" s="84" t="s">
+        <v>421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5948,7 +6256,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
